--- a/modeling/report/03-eval-final.xlsx
+++ b/modeling/report/03-eval-final.xlsx
@@ -607,46 +607,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C2" t="n">
+        <v>88</v>
+      </c>
+      <c r="D2" t="n">
         <v>89</v>
       </c>
-      <c r="D2" t="n">
-        <v>82</v>
-      </c>
       <c r="E2" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F2" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G2" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>-210</v>
+        <v>-196</v>
       </c>
       <c r="J2" t="n">
-        <v>0.776566757493188</v>
+        <v>0.7626666666666667</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7664041994750657</v>
+        <v>0.7640750670241286</v>
       </c>
       <c r="L2" t="n">
+        <v>0.7647058823529411</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.7620320855614974</v>
       </c>
-      <c r="M2" t="n">
-        <v>0.7807486631016043</v>
-      </c>
       <c r="N2" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7636849132176236</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7735099337748345</v>
+        <v>0.7630522088353414</v>
       </c>
       <c r="P2" t="n">
         <v>374</v>
@@ -655,46 +655,46 @@
         <v>374</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7713903743315508</v>
+        <v>0.7633689839572193</v>
       </c>
       <c r="S2" t="n">
         <v>748</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7714854784841269</v>
+        <v>0.7633708668453977</v>
       </c>
       <c r="U2" t="n">
-        <v>0.7713903743315509</v>
+        <v>0.7633689839572193</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7713703515028019</v>
+        <v>0.7633685610264824</v>
       </c>
       <c r="W2" t="n">
         <v>748</v>
       </c>
       <c r="X2" t="n">
-        <v>0.771485478484127</v>
+        <v>0.7633708668453977</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7713903743315508</v>
+        <v>0.7633689839572193</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.7713703515028019</v>
+        <v>0.7633685610264824</v>
       </c>
       <c r="AA2" t="n">
         <v>748</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.8504461094111927</v>
+        <v>0.8389323400726358</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.7713903743315508</v>
+        <v>0.7633689839572193</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.2286096256684492</v>
+        <v>0.2366310160427808</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.08556149732620322</v>
+        <v>0.053475935828877</v>
       </c>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
@@ -706,46 +706,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="C3" t="n">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="D3" t="n">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="E3" t="n">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="F3" t="n">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="G3" t="n">
-        <v>-16</v>
+        <v>-11</v>
       </c>
       <c r="H3" t="n">
-        <v>-16</v>
+        <v>-11</v>
       </c>
       <c r="I3" t="n">
-        <v>-172</v>
+        <v>-200</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7178770949720671</v>
+        <v>0.7603305785123967</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6871657754010695</v>
+        <v>0.7379679144385026</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7299465240641712</v>
+        <v>0.767379679144385</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7021857923497268</v>
+        <v>0.7489823609226595</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7146596858638743</v>
+        <v>0.7562582345191041</v>
       </c>
       <c r="P3" t="n">
         <v>374</v>
@@ -754,46 +754,46 @@
         <v>374</v>
       </c>
       <c r="R3" t="n">
-        <v>0.7085561497326203</v>
+        <v>0.7526737967914439</v>
       </c>
       <c r="S3" t="n">
         <v>748</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7089385474860335</v>
+        <v>0.7528925619834711</v>
       </c>
       <c r="U3" t="n">
-        <v>0.7085561497326203</v>
+        <v>0.7526737967914439</v>
       </c>
       <c r="V3" t="n">
-        <v>0.7084227391068005</v>
+        <v>0.7526202977208818</v>
       </c>
       <c r="W3" t="n">
         <v>748</v>
       </c>
       <c r="X3" t="n">
-        <v>0.7089385474860335</v>
+        <v>0.7528925619834712</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.7085561497326203</v>
+        <v>0.7526737967914439</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.7084227391068004</v>
+        <v>0.7526202977208819</v>
       </c>
       <c r="AA3" t="n">
         <v>748</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.7893884583488233</v>
+        <v>0.8028897023077584</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.7085561497326203</v>
+        <v>0.7526737967914439</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.2914438502673797</v>
+        <v>0.2473262032085561</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0.1657754010695187</v>
+        <v>0.01069518716577544</v>
       </c>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr"/>
@@ -805,46 +805,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C4" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D4" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E4" t="n">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F4" t="n">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>-190</v>
+        <v>-184</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7585301837270341</v>
+        <v>0.7486772486772487</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7683923705722071</v>
+        <v>0.754054054054054</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.7566844919786097</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7540106951871658</v>
+        <v>0.7459893048128342</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7655629139072848</v>
+        <v>0.7526595744680851</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7611336032388664</v>
+        <v>0.75</v>
       </c>
       <c r="P4" t="n">
         <v>374</v>
@@ -853,46 +853,46 @@
         <v>374</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7633689839572193</v>
+        <v>0.7513368983957219</v>
       </c>
       <c r="S4" t="n">
         <v>748</v>
       </c>
       <c r="T4" t="n">
-        <v>0.7634612771496205</v>
+        <v>0.7513656513656514</v>
       </c>
       <c r="U4" t="n">
-        <v>0.7633689839572193</v>
+        <v>0.7513368983957219</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7633482585730755</v>
+        <v>0.7513297872340425</v>
       </c>
       <c r="W4" t="n">
         <v>748</v>
       </c>
       <c r="X4" t="n">
-        <v>0.7634612771496206</v>
+        <v>0.7513656513656514</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.7633689839572193</v>
+        <v>0.7513368983957219</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.7633482585730758</v>
+        <v>0.7513297872340425</v>
       </c>
       <c r="AA4" t="n">
         <v>748</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.8420815579513283</v>
+        <v>0.8347536389373444</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.7633689839572193</v>
+        <v>0.7513368983957219</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.2366310160427808</v>
+        <v>0.2486631016042781</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.053475935828877</v>
+        <v>0.005347593582887722</v>
       </c>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C5" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D5" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E5" t="n">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F5" t="n">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>-190</v>
+        <v>-184</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7585301837270341</v>
+        <v>0.7486772486772487</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7683923705722071</v>
+        <v>0.754054054054054</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.7566844919786097</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7540106951871658</v>
+        <v>0.7459893048128342</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7655629139072848</v>
+        <v>0.7526595744680851</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7611336032388664</v>
+        <v>0.75</v>
       </c>
       <c r="P5" t="n">
         <v>374</v>
@@ -952,46 +952,46 @@
         <v>374</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7633689839572193</v>
+        <v>0.7513368983957219</v>
       </c>
       <c r="S5" t="n">
         <v>748</v>
       </c>
       <c r="T5" t="n">
-        <v>0.7634612771496205</v>
+        <v>0.7513656513656514</v>
       </c>
       <c r="U5" t="n">
-        <v>0.7633689839572193</v>
+        <v>0.7513368983957219</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7633482585730755</v>
+        <v>0.7513297872340425</v>
       </c>
       <c r="W5" t="n">
         <v>748</v>
       </c>
       <c r="X5" t="n">
-        <v>0.7634612771496206</v>
+        <v>0.7513656513656514</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.7633689839572193</v>
+        <v>0.7513368983957219</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.7633482585730758</v>
+        <v>0.7513297872340425</v>
       </c>
       <c r="AA5" t="n">
         <v>748</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.8420815579513283</v>
+        <v>0.8347536389373444</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.7633689839572193</v>
+        <v>0.7513368983957219</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.2366310160427808</v>
+        <v>0.2486631016042781</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.053475935828877</v>
+        <v>0.005347593582887722</v>
       </c>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
@@ -1003,13 +1003,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C6" t="n">
         <v>154</v>
       </c>
       <c r="D6" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E6" t="n">
         <v>220</v>
@@ -1018,31 +1018,31 @@
         <v>66</v>
       </c>
       <c r="G6" t="n">
-        <v>-108</v>
+        <v>-106</v>
       </c>
       <c r="H6" t="n">
-        <v>-108</v>
+        <v>-106</v>
       </c>
       <c r="I6" t="n">
-        <v>-282</v>
+        <v>-278</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8270676691729323</v>
+        <v>0.8208955223880597</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6804979253112033</v>
+        <v>0.6791666666666667</v>
       </c>
       <c r="L6" t="n">
         <v>0.5882352941176471</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8770053475935828</v>
+        <v>0.8716577540106952</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6875</v>
+        <v>0.6853582554517134</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7663551401869159</v>
+        <v>0.7634660421545667</v>
       </c>
       <c r="P6" t="n">
         <v>374</v>
@@ -1051,46 +1051,46 @@
         <v>374</v>
       </c>
       <c r="R6" t="n">
-        <v>0.732620320855615</v>
+        <v>0.7299465240641712</v>
       </c>
       <c r="S6" t="n">
         <v>748</v>
       </c>
       <c r="T6" t="n">
-        <v>0.7537827972420679</v>
+        <v>0.7500310945273632</v>
       </c>
       <c r="U6" t="n">
-        <v>0.732620320855615</v>
+        <v>0.7299465240641712</v>
       </c>
       <c r="V6" t="n">
-        <v>0.7269275700934579</v>
+        <v>0.7244121488031401</v>
       </c>
       <c r="W6" t="n">
         <v>748</v>
       </c>
       <c r="X6" t="n">
-        <v>0.7537827972420678</v>
+        <v>0.7500310945273632</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.732620320855615</v>
+        <v>0.7299465240641712</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.7269275700934579</v>
+        <v>0.72441214880314</v>
       </c>
       <c r="AA6" t="n">
         <v>748</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.8263104463953788</v>
+        <v>0.8194507992793617</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.732620320855615</v>
+        <v>0.7299465240641712</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.267379679144385</v>
+        <v>0.2700534759358289</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.06951871657754016</v>
+        <v>-0.08021390374331561</v>
       </c>
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr"/>
@@ -1102,46 +1102,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D7" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E7" t="n">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="F7" t="n">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="G7" t="n">
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="I7" t="n">
-        <v>-204</v>
+        <v>-194</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7632311977715878</v>
+        <v>0.7587131367292225</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7429305912596401</v>
+        <v>0.7573333333333333</v>
       </c>
       <c r="L7" t="n">
-        <v>0.732620320855615</v>
+        <v>0.7566844919786097</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.7593582887700535</v>
       </c>
       <c r="N7" t="n">
-        <v>0.747612551159618</v>
+        <v>0.7576974564926372</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7575360419397117</v>
+        <v>0.7583444592790387</v>
       </c>
       <c r="P7" t="n">
         <v>374</v>
@@ -1150,46 +1150,46 @@
         <v>374</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7526737967914439</v>
+        <v>0.7580213903743316</v>
       </c>
       <c r="S7" t="n">
         <v>748</v>
       </c>
       <c r="T7" t="n">
-        <v>0.753080894515614</v>
+        <v>0.7580232350312779</v>
       </c>
       <c r="U7" t="n">
-        <v>0.7526737967914439</v>
+        <v>0.7580213903743316</v>
       </c>
       <c r="V7" t="n">
-        <v>0.7525742965496649</v>
+        <v>0.7580209578858379</v>
       </c>
       <c r="W7" t="n">
         <v>748</v>
       </c>
       <c r="X7" t="n">
-        <v>0.7530808945156141</v>
+        <v>0.7580232350312779</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.7526737967914439</v>
+        <v>0.7580213903743316</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.7525742965496649</v>
+        <v>0.7580209578858379</v>
       </c>
       <c r="AA7" t="n">
         <v>748</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.8337456032485917</v>
+        <v>0.8208484657839802</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.7526737967914439</v>
+        <v>0.7580213903743316</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.2473262032085561</v>
+        <v>0.2419786096256684</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.01069518716577544</v>
+        <v>0.03208556149732622</v>
       </c>
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="n">
@@ -1203,46 +1203,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D8" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E8" t="n">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="F8" t="n">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="G8" t="n">
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="H8" t="n">
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="I8" t="n">
-        <v>-204</v>
+        <v>-194</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7632311977715878</v>
+        <v>0.7587131367292225</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7429305912596401</v>
+        <v>0.7573333333333333</v>
       </c>
       <c r="L8" t="n">
-        <v>0.732620320855615</v>
+        <v>0.7566844919786097</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.7593582887700535</v>
       </c>
       <c r="N8" t="n">
-        <v>0.747612551159618</v>
+        <v>0.7576974564926372</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7575360419397117</v>
+        <v>0.7583444592790387</v>
       </c>
       <c r="P8" t="n">
         <v>374</v>
@@ -1251,46 +1251,46 @@
         <v>374</v>
       </c>
       <c r="R8" t="n">
-        <v>0.7526737967914439</v>
+        <v>0.7580213903743316</v>
       </c>
       <c r="S8" t="n">
         <v>748</v>
       </c>
       <c r="T8" t="n">
-        <v>0.753080894515614</v>
+        <v>0.7580232350312779</v>
       </c>
       <c r="U8" t="n">
-        <v>0.7526737967914439</v>
+        <v>0.7580213903743316</v>
       </c>
       <c r="V8" t="n">
-        <v>0.7525742965496649</v>
+        <v>0.7580209578858379</v>
       </c>
       <c r="W8" t="n">
         <v>748</v>
       </c>
       <c r="X8" t="n">
-        <v>0.7530808945156141</v>
+        <v>0.7580232350312779</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.7526737967914439</v>
+        <v>0.7580213903743316</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.7525742965496649</v>
+        <v>0.7580209578858379</v>
       </c>
       <c r="AA8" t="n">
         <v>748</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.8381495038462637</v>
+        <v>0.8349645400211617</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.7526737967914439</v>
+        <v>0.7580213903743316</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.2473262032085561</v>
+        <v>0.2419786096256684</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.01069518716577544</v>
+        <v>0.03208556149732622</v>
       </c>
       <c r="AF8" t="n">
         <v>100</v>
@@ -1306,46 +1306,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C9" t="n">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D9" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E9" t="n">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="F9" t="n">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="G9" t="n">
-        <v>-3</v>
+        <v>15</v>
       </c>
       <c r="H9" t="n">
-        <v>-3</v>
+        <v>15</v>
       </c>
       <c r="I9" t="n">
-        <v>-172</v>
+        <v>-170</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7277628032345014</v>
+        <v>0.7377892030848329</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7241379310344828</v>
+        <v>0.7576601671309192</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7219251336898396</v>
+        <v>0.767379679144385</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7299465240641712</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="N9" t="n">
-        <v>0.7248322147651006</v>
+        <v>0.7522935779816514</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7270306258322237</v>
+        <v>0.7421555252387448</v>
       </c>
       <c r="P9" t="n">
         <v>374</v>
@@ -1354,46 +1354,46 @@
         <v>374</v>
       </c>
       <c r="R9" t="n">
-        <v>0.7259358288770054</v>
+        <v>0.7473262032085561</v>
       </c>
       <c r="S9" t="n">
         <v>748</v>
       </c>
       <c r="T9" t="n">
-        <v>0.725950367134492</v>
+        <v>0.747724685107876</v>
       </c>
       <c r="U9" t="n">
-        <v>0.7259358288770054</v>
+        <v>0.7473262032085561</v>
       </c>
       <c r="V9" t="n">
-        <v>0.7259314202986622</v>
+        <v>0.7472245516101981</v>
       </c>
       <c r="W9" t="n">
         <v>748</v>
       </c>
       <c r="X9" t="n">
-        <v>0.725950367134492</v>
+        <v>0.747724685107876</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.7259358288770054</v>
+        <v>0.7473262032085561</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.7259314202986621</v>
+        <v>0.7472245516101981</v>
       </c>
       <c r="AA9" t="n">
         <v>748</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.8077297034516284</v>
+        <v>0.8053097028796935</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.7259358288770054</v>
+        <v>0.7473262032085561</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.2740641711229946</v>
+        <v>0.2526737967914439</v>
       </c>
       <c r="AE9" t="n">
-        <v>-0.09625668449197855</v>
+        <v>-0.01069518716577544</v>
       </c>
       <c r="AF9" t="n">
         <v>100</v>
@@ -1409,46 +1409,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="C10" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D10" t="n">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E10" t="n">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F10" t="n">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G10" t="n">
-        <v>-31</v>
+        <v>-11</v>
       </c>
       <c r="H10" t="n">
-        <v>-31</v>
+        <v>-11</v>
       </c>
       <c r="I10" t="n">
-        <v>-234</v>
+        <v>-202</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7959183673469388</v>
+        <v>0.7630853994490359</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7506172839506173</v>
+        <v>0.7480519480519481</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7299465240641712</v>
+        <v>0.7406417112299465</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8128342245989305</v>
+        <v>0.7700534759358288</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7615062761506276</v>
+        <v>0.751696065128901</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7804878048780488</v>
+        <v>0.758893280632411</v>
       </c>
       <c r="P10" t="n">
         <v>374</v>
@@ -1457,46 +1457,46 @@
         <v>374</v>
       </c>
       <c r="R10" t="n">
-        <v>0.7713903743315508</v>
+        <v>0.7553475935828877</v>
       </c>
       <c r="S10" t="n">
         <v>748</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7732678256487781</v>
+        <v>0.755568673750492</v>
       </c>
       <c r="U10" t="n">
-        <v>0.7713903743315509</v>
+        <v>0.7553475935828877</v>
       </c>
       <c r="V10" t="n">
-        <v>0.7709970405143383</v>
+        <v>0.755294672880656</v>
       </c>
       <c r="W10" t="n">
         <v>748</v>
       </c>
       <c r="X10" t="n">
-        <v>0.7732678256487779</v>
+        <v>0.755568673750492</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.7713903743315508</v>
+        <v>0.7553475935828877</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.7709970405143383</v>
+        <v>0.755294672880656</v>
       </c>
       <c r="AA10" t="n">
         <v>748</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.8521762132174212</v>
+        <v>0.8377598730303983</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.7713903743315508</v>
+        <v>0.7553475935828877</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.2286096256684492</v>
+        <v>0.2446524064171123</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.08556149732620322</v>
+        <v>0.02139037433155078</v>
       </c>
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr"/>
@@ -1508,13 +1508,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C11" t="n">
         <v>85</v>
       </c>
       <c r="D11" t="n">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E11" t="n">
         <v>289</v>
@@ -1523,31 +1523,31 @@
         <v>204</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I11" t="n">
-        <v>-194</v>
+        <v>-170</v>
       </c>
       <c r="J11" t="n">
-        <v>0.762532981530343</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7696476964769647</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L11" t="n">
         <v>0.7727272727272727</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7593582887700535</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="N11" t="n">
-        <v>0.7675962815405046</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7644683714670256</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="P11" t="n">
         <v>374</v>
@@ -1556,46 +1556,46 @@
         <v>374</v>
       </c>
       <c r="R11" t="n">
-        <v>0.7660427807486631</v>
+        <v>0.75</v>
       </c>
       <c r="S11" t="n">
         <v>748</v>
       </c>
       <c r="T11" t="n">
-        <v>0.7660903390036539</v>
+        <v>0.7505175983436853</v>
       </c>
       <c r="U11" t="n">
-        <v>0.7660427807486632</v>
+        <v>0.75</v>
       </c>
       <c r="V11" t="n">
-        <v>0.7660323265037652</v>
+        <v>0.7498708010335917</v>
       </c>
       <c r="W11" t="n">
         <v>748</v>
       </c>
       <c r="X11" t="n">
-        <v>0.7660903390036539</v>
+        <v>0.7505175983436853</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.7660427807486631</v>
+        <v>0.75</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.7660323265037652</v>
+        <v>0.7498708010335916</v>
       </c>
       <c r="AA11" t="n">
         <v>748</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.8476007320769825</v>
+        <v>0.8326910978295061</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.7660427807486631</v>
+        <v>0.75</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.2339572192513369</v>
+        <v>0.25</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.06417112299465244</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="inlineStr"/>

--- a/modeling/report/03-eval-final.xlsx
+++ b/modeling/report/03-eval-final.xlsx
@@ -1409,46 +1409,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C10" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D10" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E10" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F10" t="n">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G10" t="n">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="H10" t="n">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="I10" t="n">
-        <v>-202</v>
+        <v>-198</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7630853994490359</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7480519480519481</v>
+        <v>0.7526315789473684</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7406417112299465</v>
+        <v>0.7486631016042781</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7700534759358288</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="N10" t="n">
-        <v>0.751696065128901</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="O10" t="n">
-        <v>0.758893280632411</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="P10" t="n">
         <v>374</v>
@@ -1457,46 +1457,46 @@
         <v>374</v>
       </c>
       <c r="R10" t="n">
-        <v>0.7553475935828877</v>
+        <v>0.7566844919786097</v>
       </c>
       <c r="S10" t="n">
         <v>748</v>
       </c>
       <c r="T10" t="n">
-        <v>0.755568673750492</v>
+        <v>0.7567505720823799</v>
       </c>
       <c r="U10" t="n">
-        <v>0.7553475935828877</v>
+        <v>0.7566844919786095</v>
       </c>
       <c r="V10" t="n">
-        <v>0.755294672880656</v>
+        <v>0.756668835393624</v>
       </c>
       <c r="W10" t="n">
         <v>748</v>
       </c>
       <c r="X10" t="n">
-        <v>0.755568673750492</v>
+        <v>0.7567505720823799</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.7553475935828877</v>
+        <v>0.7566844919786097</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.755294672880656</v>
+        <v>0.756668835393624</v>
       </c>
       <c r="AA10" t="n">
         <v>748</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.8377598730303983</v>
+        <v>0.8393040979152964</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.7553475935828877</v>
+        <v>0.7566844919786097</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.2446524064171123</v>
+        <v>0.2433155080213904</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.02139037433155078</v>
+        <v>0.0267379679144385</v>
       </c>
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr"/>
@@ -1508,46 +1508,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C11" t="n">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D11" t="n">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E11" t="n">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="F11" t="n">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="G11" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="H11" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I11" t="n">
-        <v>-170</v>
+        <v>-150</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.7268292682926829</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7619047619047619</v>
+        <v>0.7751479289940828</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.7967914438502673</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.7005347593582888</v>
       </c>
       <c r="N11" t="n">
-        <v>0.7555555555555555</v>
+        <v>0.7602040816326531</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7441860465116279</v>
+        <v>0.7359550561797753</v>
       </c>
       <c r="P11" t="n">
         <v>374</v>
@@ -1556,46 +1556,46 @@
         <v>374</v>
       </c>
       <c r="R11" t="n">
-        <v>0.75</v>
+        <v>0.7486631016042781</v>
       </c>
       <c r="S11" t="n">
         <v>748</v>
       </c>
       <c r="T11" t="n">
-        <v>0.7505175983436853</v>
+        <v>0.7509885986433829</v>
       </c>
       <c r="U11" t="n">
-        <v>0.75</v>
+        <v>0.7486631016042781</v>
       </c>
       <c r="V11" t="n">
-        <v>0.7498708010335917</v>
+        <v>0.7480795689062142</v>
       </c>
       <c r="W11" t="n">
         <v>748</v>
       </c>
       <c r="X11" t="n">
-        <v>0.7505175983436853</v>
+        <v>0.7509885986433827</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.75</v>
+        <v>0.7486631016042781</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.7498708010335916</v>
+        <v>0.7480795689062141</v>
       </c>
       <c r="AA11" t="n">
         <v>748</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.8326910978295061</v>
+        <v>0.8318331951156739</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.75</v>
+        <v>0.7486631016042781</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.25</v>
+        <v>0.2513368983957219</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>-0.005347593582887722</v>
       </c>
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="inlineStr"/>

--- a/modeling/report/03-eval-final.xlsx
+++ b/modeling/report/03-eval-final.xlsx
@@ -1409,46 +1409,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="C10" t="n">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D10" t="n">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E10" t="n">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="F10" t="n">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="G10" t="n">
-        <v>-6</v>
+        <v>20</v>
       </c>
       <c r="H10" t="n">
-        <v>-6</v>
+        <v>20</v>
       </c>
       <c r="I10" t="n">
-        <v>-198</v>
+        <v>-172</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7608695652173914</v>
+        <v>0.7436548223350253</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7526315789473684</v>
+        <v>0.7711864406779662</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7486631016042781</v>
+        <v>0.7834224598930482</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.7299465240641712</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7547169811320755</v>
+        <v>0.7630208333333334</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7586206896551724</v>
+        <v>0.75</v>
       </c>
       <c r="P10" t="n">
         <v>374</v>
@@ -1463,31 +1463,31 @@
         <v>748</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7567505720823799</v>
+        <v>0.7574206315064957</v>
       </c>
       <c r="U10" t="n">
-        <v>0.7566844919786095</v>
+        <v>0.7566844919786097</v>
       </c>
       <c r="V10" t="n">
-        <v>0.756668835393624</v>
+        <v>0.7565104166666667</v>
       </c>
       <c r="W10" t="n">
         <v>748</v>
       </c>
       <c r="X10" t="n">
-        <v>0.7567505720823799</v>
+        <v>0.7574206315064957</v>
       </c>
       <c r="Y10" t="n">
         <v>0.7566844919786097</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.756668835393624</v>
+        <v>0.7565104166666667</v>
       </c>
       <c r="AA10" t="n">
         <v>748</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.8393040979152964</v>
+        <v>0.8389752352083274</v>
       </c>
       <c r="AC10" t="n">
         <v>0.7566844919786097</v>
@@ -1508,46 +1508,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="C11" t="n">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D11" t="n">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E11" t="n">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F11" t="n">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="G11" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="H11" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="I11" t="n">
-        <v>-150</v>
+        <v>-184</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7268292682926829</v>
+        <v>0.7506561679790026</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7751479289940828</v>
+        <v>0.7602179836512262</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7967914438502673</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7005347593582888</v>
+        <v>0.7459893048128342</v>
       </c>
       <c r="N11" t="n">
-        <v>0.7602040816326531</v>
+        <v>0.7576158940397351</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7359550561797753</v>
+        <v>0.7530364372469636</v>
       </c>
       <c r="P11" t="n">
         <v>374</v>
@@ -1556,46 +1556,46 @@
         <v>374</v>
       </c>
       <c r="R11" t="n">
-        <v>0.7486631016042781</v>
+        <v>0.7553475935828877</v>
       </c>
       <c r="S11" t="n">
         <v>748</v>
       </c>
       <c r="T11" t="n">
-        <v>0.7509885986433829</v>
+        <v>0.7554370758151143</v>
       </c>
       <c r="U11" t="n">
-        <v>0.7486631016042781</v>
+        <v>0.7553475935828877</v>
       </c>
       <c r="V11" t="n">
-        <v>0.7480795689062142</v>
+        <v>0.7553261656433493</v>
       </c>
       <c r="W11" t="n">
         <v>748</v>
       </c>
       <c r="X11" t="n">
-        <v>0.7509885986433827</v>
+        <v>0.7554370758151143</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.7486631016042781</v>
+        <v>0.7553475935828877</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.7480795689062141</v>
+        <v>0.7553261656433492</v>
       </c>
       <c r="AA11" t="n">
         <v>748</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.8318331951156739</v>
+        <v>0.8350860762389545</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.7486631016042781</v>
+        <v>0.7553475935828877</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.2513368983957219</v>
+        <v>0.2446524064171123</v>
       </c>
       <c r="AE11" t="n">
-        <v>-0.005347593582887722</v>
+        <v>0.02139037433155078</v>
       </c>
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="inlineStr"/>

--- a/modeling/report/03-eval-final.xlsx
+++ b/modeling/report/03-eval-final.xlsx
@@ -607,46 +607,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>292</v>
+      </c>
+      <c r="C2" t="n">
+        <v>89</v>
+      </c>
+      <c r="D2" t="n">
+        <v>82</v>
+      </c>
+      <c r="E2" t="n">
         <v>285</v>
       </c>
-      <c r="C2" t="n">
-        <v>88</v>
-      </c>
-      <c r="D2" t="n">
-        <v>89</v>
-      </c>
-      <c r="E2" t="n">
-        <v>286</v>
-      </c>
       <c r="F2" t="n">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="I2" t="n">
-        <v>-196</v>
+        <v>-210</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7626666666666667</v>
+        <v>0.776566757493188</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7640750670241286</v>
+        <v>0.7664041994750657</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.7620320855614974</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7620320855614974</v>
+        <v>0.7807486631016043</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7636849132176236</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7630522088353414</v>
+        <v>0.7735099337748345</v>
       </c>
       <c r="P2" t="n">
         <v>374</v>
@@ -655,46 +655,46 @@
         <v>374</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7633689839572193</v>
+        <v>0.7713903743315508</v>
       </c>
       <c r="S2" t="n">
         <v>748</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7633708668453977</v>
+        <v>0.7714854784841269</v>
       </c>
       <c r="U2" t="n">
-        <v>0.7633689839572193</v>
+        <v>0.7713903743315509</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7633685610264824</v>
+        <v>0.7713703515028019</v>
       </c>
       <c r="W2" t="n">
         <v>748</v>
       </c>
       <c r="X2" t="n">
-        <v>0.7633708668453977</v>
+        <v>0.771485478484127</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7633689839572193</v>
+        <v>0.7713903743315508</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.7633685610264824</v>
+        <v>0.7713703515028019</v>
       </c>
       <c r="AA2" t="n">
         <v>748</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.8389323400726358</v>
+        <v>0.8504461094111927</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.7633689839572193</v>
+        <v>0.7713903743315508</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.2366310160427808</v>
+        <v>0.2286096256684492</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.053475935828877</v>
+        <v>0.08556149732620322</v>
       </c>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
@@ -706,46 +706,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="C3" t="n">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="D3" t="n">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="E3" t="n">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="F3" t="n">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="G3" t="n">
-        <v>-11</v>
+        <v>-16</v>
       </c>
       <c r="H3" t="n">
-        <v>-11</v>
+        <v>-16</v>
       </c>
       <c r="I3" t="n">
-        <v>-200</v>
+        <v>-172</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7603305785123967</v>
+        <v>0.7178770949720671</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7454545454545455</v>
+        <v>0.7</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7379679144385026</v>
+        <v>0.6871657754010695</v>
       </c>
       <c r="M3" t="n">
-        <v>0.767379679144385</v>
+        <v>0.7299465240641712</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7489823609226595</v>
+        <v>0.7021857923497268</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7562582345191041</v>
+        <v>0.7146596858638743</v>
       </c>
       <c r="P3" t="n">
         <v>374</v>
@@ -754,46 +754,46 @@
         <v>374</v>
       </c>
       <c r="R3" t="n">
-        <v>0.7526737967914439</v>
+        <v>0.7085561497326203</v>
       </c>
       <c r="S3" t="n">
         <v>748</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7528925619834711</v>
+        <v>0.7089385474860335</v>
       </c>
       <c r="U3" t="n">
-        <v>0.7526737967914439</v>
+        <v>0.7085561497326203</v>
       </c>
       <c r="V3" t="n">
-        <v>0.7526202977208818</v>
+        <v>0.7084227391068005</v>
       </c>
       <c r="W3" t="n">
         <v>748</v>
       </c>
       <c r="X3" t="n">
-        <v>0.7528925619834712</v>
+        <v>0.7089385474860335</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.7526737967914439</v>
+        <v>0.7085561497326203</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.7526202977208819</v>
+        <v>0.7084227391068004</v>
       </c>
       <c r="AA3" t="n">
         <v>748</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.8028897023077584</v>
+        <v>0.7893884583488233</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.7526737967914439</v>
+        <v>0.7085561497326203</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.2473262032085561</v>
+        <v>0.2914438502673797</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.01069518716577544</v>
+        <v>-0.1657754010695187</v>
       </c>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr"/>
@@ -805,46 +805,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C4" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D4" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E4" t="n">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F4" t="n">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>-184</v>
+        <v>-190</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7486772486772487</v>
+        <v>0.7585301837270341</v>
       </c>
       <c r="K4" t="n">
-        <v>0.754054054054054</v>
+        <v>0.7683923705722071</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7566844919786097</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7459893048128342</v>
+        <v>0.7540106951871658</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7526595744680851</v>
+        <v>0.7655629139072848</v>
       </c>
       <c r="O4" t="n">
-        <v>0.75</v>
+        <v>0.7611336032388664</v>
       </c>
       <c r="P4" t="n">
         <v>374</v>
@@ -853,46 +853,46 @@
         <v>374</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7513368983957219</v>
+        <v>0.7633689839572193</v>
       </c>
       <c r="S4" t="n">
         <v>748</v>
       </c>
       <c r="T4" t="n">
-        <v>0.7513656513656514</v>
+        <v>0.7634612771496205</v>
       </c>
       <c r="U4" t="n">
-        <v>0.7513368983957219</v>
+        <v>0.7633689839572193</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7513297872340425</v>
+        <v>0.7633482585730755</v>
       </c>
       <c r="W4" t="n">
         <v>748</v>
       </c>
       <c r="X4" t="n">
-        <v>0.7513656513656514</v>
+        <v>0.7634612771496206</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.7513368983957219</v>
+        <v>0.7633689839572193</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.7513297872340425</v>
+        <v>0.7633482585730758</v>
       </c>
       <c r="AA4" t="n">
         <v>748</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.8347536389373444</v>
+        <v>0.8420815579513283</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.7513368983957219</v>
+        <v>0.7633689839572193</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.2486631016042781</v>
+        <v>0.2366310160427808</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.005347593582887722</v>
+        <v>0.053475935828877</v>
       </c>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C5" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D5" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E5" t="n">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F5" t="n">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>-184</v>
+        <v>-190</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7486772486772487</v>
+        <v>0.7585301837270341</v>
       </c>
       <c r="K5" t="n">
-        <v>0.754054054054054</v>
+        <v>0.7683923705722071</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7566844919786097</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7459893048128342</v>
+        <v>0.7540106951871658</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7526595744680851</v>
+        <v>0.7655629139072848</v>
       </c>
       <c r="O5" t="n">
-        <v>0.75</v>
+        <v>0.7611336032388664</v>
       </c>
       <c r="P5" t="n">
         <v>374</v>
@@ -952,46 +952,46 @@
         <v>374</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7513368983957219</v>
+        <v>0.7633689839572193</v>
       </c>
       <c r="S5" t="n">
         <v>748</v>
       </c>
       <c r="T5" t="n">
-        <v>0.7513656513656514</v>
+        <v>0.7634612771496205</v>
       </c>
       <c r="U5" t="n">
-        <v>0.7513368983957219</v>
+        <v>0.7633689839572193</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7513297872340425</v>
+        <v>0.7633482585730755</v>
       </c>
       <c r="W5" t="n">
         <v>748</v>
       </c>
       <c r="X5" t="n">
-        <v>0.7513656513656514</v>
+        <v>0.7634612771496206</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.7513368983957219</v>
+        <v>0.7633689839572193</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.7513297872340425</v>
+        <v>0.7633482585730758</v>
       </c>
       <c r="AA5" t="n">
         <v>748</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.8347536389373444</v>
+        <v>0.8420815579513283</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.7513368983957219</v>
+        <v>0.7633689839572193</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.2486631016042781</v>
+        <v>0.2366310160427808</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.005347593582887722</v>
+        <v>0.053475935828877</v>
       </c>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
@@ -1003,13 +1003,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C6" t="n">
         <v>154</v>
       </c>
       <c r="D6" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E6" t="n">
         <v>220</v>
@@ -1018,31 +1018,31 @@
         <v>66</v>
       </c>
       <c r="G6" t="n">
-        <v>-106</v>
+        <v>-108</v>
       </c>
       <c r="H6" t="n">
-        <v>-106</v>
+        <v>-108</v>
       </c>
       <c r="I6" t="n">
-        <v>-278</v>
+        <v>-282</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8208955223880597</v>
+        <v>0.8270676691729323</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6791666666666667</v>
+        <v>0.6804979253112033</v>
       </c>
       <c r="L6" t="n">
         <v>0.5882352941176471</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8716577540106952</v>
+        <v>0.8770053475935828</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6853582554517134</v>
+        <v>0.6875</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7634660421545667</v>
+        <v>0.7663551401869159</v>
       </c>
       <c r="P6" t="n">
         <v>374</v>
@@ -1051,46 +1051,46 @@
         <v>374</v>
       </c>
       <c r="R6" t="n">
-        <v>0.7299465240641712</v>
+        <v>0.732620320855615</v>
       </c>
       <c r="S6" t="n">
         <v>748</v>
       </c>
       <c r="T6" t="n">
-        <v>0.7500310945273632</v>
+        <v>0.7537827972420679</v>
       </c>
       <c r="U6" t="n">
-        <v>0.7299465240641712</v>
+        <v>0.732620320855615</v>
       </c>
       <c r="V6" t="n">
-        <v>0.7244121488031401</v>
+        <v>0.7269275700934579</v>
       </c>
       <c r="W6" t="n">
         <v>748</v>
       </c>
       <c r="X6" t="n">
-        <v>0.7500310945273632</v>
+        <v>0.7537827972420678</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.7299465240641712</v>
+        <v>0.732620320855615</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.72441214880314</v>
+        <v>0.7269275700934579</v>
       </c>
       <c r="AA6" t="n">
         <v>748</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.8194507992793617</v>
+        <v>0.8263104463953788</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.7299465240641712</v>
+        <v>0.732620320855615</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.2700534759358289</v>
+        <v>0.267379679144385</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.08021390374331561</v>
+        <v>-0.06951871657754016</v>
       </c>
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr"/>
@@ -1102,46 +1102,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C7" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E7" t="n">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="F7" t="n">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="G7" t="n">
-        <v>-1</v>
+        <v>-15</v>
       </c>
       <c r="H7" t="n">
-        <v>-1</v>
+        <v>-15</v>
       </c>
       <c r="I7" t="n">
-        <v>-194</v>
+        <v>-204</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7587131367292225</v>
+        <v>0.7632311977715878</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7573333333333333</v>
+        <v>0.7429305912596401</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7566844919786097</v>
+        <v>0.732620320855615</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7593582887700535</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7576974564926372</v>
+        <v>0.747612551159618</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7583444592790387</v>
+        <v>0.7575360419397117</v>
       </c>
       <c r="P7" t="n">
         <v>374</v>
@@ -1150,46 +1150,46 @@
         <v>374</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7580213903743316</v>
+        <v>0.7526737967914439</v>
       </c>
       <c r="S7" t="n">
         <v>748</v>
       </c>
       <c r="T7" t="n">
-        <v>0.7580232350312779</v>
+        <v>0.753080894515614</v>
       </c>
       <c r="U7" t="n">
-        <v>0.7580213903743316</v>
+        <v>0.7526737967914439</v>
       </c>
       <c r="V7" t="n">
-        <v>0.7580209578858379</v>
+        <v>0.7525742965496649</v>
       </c>
       <c r="W7" t="n">
         <v>748</v>
       </c>
       <c r="X7" t="n">
-        <v>0.7580232350312779</v>
+        <v>0.7530808945156141</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.7580213903743316</v>
+        <v>0.7526737967914439</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.7580209578858379</v>
+        <v>0.7525742965496649</v>
       </c>
       <c r="AA7" t="n">
         <v>748</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.8208484657839802</v>
+        <v>0.8337456032485917</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.7580213903743316</v>
+        <v>0.7526737967914439</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.2419786096256684</v>
+        <v>0.2473262032085561</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.03208556149732622</v>
+        <v>0.01069518716577544</v>
       </c>
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="n">
@@ -1203,46 +1203,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C8" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E8" t="n">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="F8" t="n">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="G8" t="n">
-        <v>-1</v>
+        <v>-15</v>
       </c>
       <c r="H8" t="n">
-        <v>-1</v>
+        <v>-15</v>
       </c>
       <c r="I8" t="n">
-        <v>-194</v>
+        <v>-204</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7587131367292225</v>
+        <v>0.7632311977715878</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7573333333333333</v>
+        <v>0.7429305912596401</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7566844919786097</v>
+        <v>0.732620320855615</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7593582887700535</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="N8" t="n">
-        <v>0.7576974564926372</v>
+        <v>0.747612551159618</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7583444592790387</v>
+        <v>0.7575360419397117</v>
       </c>
       <c r="P8" t="n">
         <v>374</v>
@@ -1251,46 +1251,46 @@
         <v>374</v>
       </c>
       <c r="R8" t="n">
-        <v>0.7580213903743316</v>
+        <v>0.7526737967914439</v>
       </c>
       <c r="S8" t="n">
         <v>748</v>
       </c>
       <c r="T8" t="n">
-        <v>0.7580232350312779</v>
+        <v>0.753080894515614</v>
       </c>
       <c r="U8" t="n">
-        <v>0.7580213903743316</v>
+        <v>0.7526737967914439</v>
       </c>
       <c r="V8" t="n">
-        <v>0.7580209578858379</v>
+        <v>0.7525742965496649</v>
       </c>
       <c r="W8" t="n">
         <v>748</v>
       </c>
       <c r="X8" t="n">
-        <v>0.7580232350312779</v>
+        <v>0.7530808945156141</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.7580213903743316</v>
+        <v>0.7526737967914439</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.7580209578858379</v>
+        <v>0.7525742965496649</v>
       </c>
       <c r="AA8" t="n">
         <v>748</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.8349645400211617</v>
+        <v>0.8381495038462637</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.7580213903743316</v>
+        <v>0.7526737967914439</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.2419786096256684</v>
+        <v>0.2473262032085561</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.03208556149732622</v>
+        <v>0.01069518716577544</v>
       </c>
       <c r="AF8" t="n">
         <v>100</v>
@@ -1306,46 +1306,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C9" t="n">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D9" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" t="n">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="F9" t="n">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="G9" t="n">
-        <v>15</v>
+        <v>-3</v>
       </c>
       <c r="H9" t="n">
-        <v>15</v>
+        <v>-3</v>
       </c>
       <c r="I9" t="n">
-        <v>-170</v>
+        <v>-172</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7377892030848329</v>
+        <v>0.7277628032345014</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7576601671309192</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L9" t="n">
-        <v>0.767379679144385</v>
+        <v>0.7219251336898396</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.7299465240641712</v>
       </c>
       <c r="N9" t="n">
-        <v>0.7522935779816514</v>
+        <v>0.7248322147651006</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7421555252387448</v>
+        <v>0.7270306258322237</v>
       </c>
       <c r="P9" t="n">
         <v>374</v>
@@ -1354,46 +1354,46 @@
         <v>374</v>
       </c>
       <c r="R9" t="n">
-        <v>0.7473262032085561</v>
+        <v>0.7259358288770054</v>
       </c>
       <c r="S9" t="n">
         <v>748</v>
       </c>
       <c r="T9" t="n">
-        <v>0.747724685107876</v>
+        <v>0.725950367134492</v>
       </c>
       <c r="U9" t="n">
-        <v>0.7473262032085561</v>
+        <v>0.7259358288770054</v>
       </c>
       <c r="V9" t="n">
-        <v>0.7472245516101981</v>
+        <v>0.7259314202986622</v>
       </c>
       <c r="W9" t="n">
         <v>748</v>
       </c>
       <c r="X9" t="n">
-        <v>0.747724685107876</v>
+        <v>0.725950367134492</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.7473262032085561</v>
+        <v>0.7259358288770054</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.7472245516101981</v>
+        <v>0.7259314202986621</v>
       </c>
       <c r="AA9" t="n">
         <v>748</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.8053097028796935</v>
+        <v>0.8077297034516284</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.7473262032085561</v>
+        <v>0.7259358288770054</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.2526737967914439</v>
+        <v>0.2740641711229946</v>
       </c>
       <c r="AE9" t="n">
-        <v>-0.01069518716577544</v>
+        <v>-0.09625668449197855</v>
       </c>
       <c r="AF9" t="n">
         <v>100</v>
@@ -1409,46 +1409,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="C10" t="n">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="D10" t="n">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="E10" t="n">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="F10" t="n">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>-34</v>
       </c>
       <c r="H10" t="n">
-        <v>20</v>
+        <v>-34</v>
       </c>
       <c r="I10" t="n">
-        <v>-172</v>
+        <v>-232</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7436548223350253</v>
+        <v>0.7911764705882353</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7711864406779662</v>
+        <v>0.7426470588235294</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7834224598930482</v>
+        <v>0.7192513368983957</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7299465240641712</v>
+        <v>0.8101604278074866</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7630208333333334</v>
+        <v>0.7535014005602241</v>
       </c>
       <c r="O10" t="n">
-        <v>0.75</v>
+        <v>0.7749360613810742</v>
       </c>
       <c r="P10" t="n">
         <v>374</v>
@@ -1457,46 +1457,46 @@
         <v>374</v>
       </c>
       <c r="R10" t="n">
-        <v>0.7566844919786097</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="S10" t="n">
         <v>748</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7574206315064957</v>
+        <v>0.7669117647058823</v>
       </c>
       <c r="U10" t="n">
-        <v>0.7566844919786097</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="V10" t="n">
-        <v>0.7565104166666667</v>
+        <v>0.7642187309706492</v>
       </c>
       <c r="W10" t="n">
         <v>748</v>
       </c>
       <c r="X10" t="n">
-        <v>0.7574206315064957</v>
+        <v>0.7669117647058823</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.7566844919786097</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.7565104166666667</v>
+        <v>0.7642187309706492</v>
       </c>
       <c r="AA10" t="n">
         <v>748</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.8389752352083274</v>
+        <v>0.8480296834338985</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.7566844919786097</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.2433155080213904</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.0267379679144385</v>
+        <v>0.05882352941176472</v>
       </c>
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr"/>
@@ -1508,46 +1508,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="C11" t="n">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="D11" t="n">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E11" t="n">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="F11" t="n">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>-36</v>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>-36</v>
       </c>
       <c r="I11" t="n">
-        <v>-184</v>
+        <v>-230</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7506561679790026</v>
+        <v>0.7869822485207101</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7602179836512262</v>
+        <v>0.7365853658536585</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.7112299465240641</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7459893048128342</v>
+        <v>0.8074866310160428</v>
       </c>
       <c r="N11" t="n">
-        <v>0.7576158940397351</v>
+        <v>0.7471910112359551</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7530364372469636</v>
+        <v>0.7704081632653061</v>
       </c>
       <c r="P11" t="n">
         <v>374</v>
@@ -1556,46 +1556,46 @@
         <v>374</v>
       </c>
       <c r="R11" t="n">
-        <v>0.7553475935828877</v>
+        <v>0.7593582887700535</v>
       </c>
       <c r="S11" t="n">
         <v>748</v>
       </c>
       <c r="T11" t="n">
-        <v>0.7554370758151143</v>
+        <v>0.7617838071871843</v>
       </c>
       <c r="U11" t="n">
-        <v>0.7553475935828877</v>
+        <v>0.7593582887700534</v>
       </c>
       <c r="V11" t="n">
-        <v>0.7553261656433493</v>
+        <v>0.7587995872506306</v>
       </c>
       <c r="W11" t="n">
         <v>748</v>
       </c>
       <c r="X11" t="n">
-        <v>0.7554370758151143</v>
+        <v>0.7617838071871843</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.7553475935828877</v>
+        <v>0.7593582887700535</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.7553261656433492</v>
+        <v>0.7587995872506307</v>
       </c>
       <c r="AA11" t="n">
         <v>748</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.8350860762389545</v>
+        <v>0.8369913351825904</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.7553475935828877</v>
+        <v>0.7593582887700535</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.2446524064171123</v>
+        <v>0.2406417112299465</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.02139037433155078</v>
+        <v>0.03743315508021394</v>
       </c>
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="inlineStr"/>
